--- a/biology/Zoologie/Arbacioida/Arbacioida.xlsx
+++ b/biology/Zoologie/Arbacioida/Arbacioida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arbacioida forment un ordre d'oursins réguliers. Il n'en subsiste actuellement qu'une seule famille : les Arbaciidae.
 </t>
@@ -511,13 +523,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers de forme arrondie ; la bouche est située au centre de la face orale (inférieure), et l'anus à l'opposé, au sommet du test (coquille).
 Au sommet du test, le disque apical est très réduit (contrairement au péristome très large, mesurant le tiers du diamètre), et dicyclique (rarement hémicyclique). 
 Les tubercules ambulacraires et interambulacraires sont de même taille, et il en va grossièrement de même pour les radioles. 
-Les tubercules sont imperforés et non crénulés chez presque tous les représentants de l'ordre, sauf les plus basaux. Une plaque basicoronale est visible aux interambulacres[1].
-Cet ordre semble être apparu au milieu du Jurassique[1].
+Les tubercules sont imperforés et non crénulés chez presque tous les représentants de l'ordre, sauf les plus basaux. Une plaque basicoronale est visible aux interambulacres.
+Cet ordre semble être apparu au milieu du Jurassique.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après World Register of Marine Species                               (30 octobre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après World Register of Marine Species                               (30 octobre 2013) :
 famille Arbaciidae Gray, 1855
 genre Arbacia Gray, 1835
 genre Arbaciella Mortensen, 1910
@@ -568,7 +584,7 @@
 			Coelopleurus floridanus
 			Test de Podocidaris ornata
 			Tetrapygus niger
-Taxons éteints[1],[2] : 
+Taxons éteints, : 
 famille fossile Acropeltidae Lambert &amp; Thiéry, 1914 †
 famille fossile Glypticidae Lambert &amp; Thiéry, 1914 †
 genre fossile Dubarechinus Lambert, 1937 †
